--- a/i_codebooks/D3_PERSONS.xlsx
+++ b/i_codebooks/D3_PERSONS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26815"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcastillo_externo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosgin2\Documents\emorragie_gravi\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_9642E3A544ABB06C4225BC32E4CFB636B0CC5417" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0927544E-4560-41D9-907D-59EBB4B34856}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12225" windowHeight="6525" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12228" windowHeight="6528" firstSheet="2" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Parameters" sheetId="3" r:id="rId3"/>
     <sheet name="Example" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>medatata_name</t>
   </si>
@@ -125,46 +124,24 @@
     <t>character</t>
   </si>
   <si>
-    <t>from CDM PERSONS</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
     <t>birth_date</t>
   </si>
   <si>
-    <t>date reconstituted from day, month and year</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
-    <t>algorithm is in place to handle the case when month and day are missing</t>
-  </si>
-  <si>
     <t>death_date</t>
   </si>
   <si>
     <t>sex_at_instance_creation</t>
   </si>
   <si>
-    <t>sex at instance creation</t>
-  </si>
-  <si>
     <t>birth_month_imputed</t>
   </si>
   <si>
-    <t>binary</t>
-  </si>
-  <si>
-    <t>1 = imputed
-0 = otherwise</t>
-  </si>
-  <si>
-    <t>if the first observation period starts during birth year, the start of the observation period is used as a birth date, otherwise 30 june</t>
-  </si>
-  <si>
     <t>birth_day_imputed</t>
   </si>
   <si>
@@ -208,13 +185,20 @@
   </si>
   <si>
     <t>2021-02-21</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>M
+F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -485,9 +469,12 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -798,20 +785,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="144.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="144.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -827,7 +814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -835,7 +822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -843,7 +830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="48.75">
+    <row r="5" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -851,7 +838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -859,7 +846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -867,7 +854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -875,7 +862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5">
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -883,7 +870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5">
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -894,25 +881,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="7" customWidth="1"/>
     <col min="2" max="2" width="31" style="7" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37" style="7" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="7"/>
+    <col min="6" max="6" width="32.88671875" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="60.75">
+    <row r="1" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -947,7 +934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
@@ -958,127 +945,67 @@
         <v>28</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="9"/>
+      <c r="H2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="30.75">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="I3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30.75">
-      <c r="A4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="E4" s="9"/>
       <c r="I4" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="I5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="45" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="61.5">
-      <c r="A7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="32.25">
-      <c r="A8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="32.25">
-      <c r="A9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1087,22 +1014,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD77DFE1-795A-49AB-BAFC-D3D54D45815D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="57">
+    <row r="1" spans="1:3" ht="54" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1111,55 +1038,55 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CC1895-001D-4F35-B149-7BD072707188}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1174,15 +1101,15 @@
         <v>0</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1197,15 +1124,15 @@
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1220,37 +1147,37 @@
         <v>0</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G12" s="12"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G14" s="12"/>
     </row>
   </sheetData>
@@ -1259,6 +1186,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
+    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8718e4a61e08f80278e3f0325a3727eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f65cc27c03321c69be19df794a0d9ee" ns2:_="" ns3:_="">
     <xsd:import namespace="8029070a-695f-410c-a424-24d0683063af"/>
@@ -1509,35 +1457,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
-    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{628637C4-F69A-4545-97CF-696C795C0E96}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
+    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{628637C4-F69A-4545-97CF-696C795C0E96}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
+    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>